--- a/BBDC_inputs_base.xlsx
+++ b/BBDC_inputs_base.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hvideira/Desktop/olavo-tcc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olavo\OneDrive\Área de Trabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{559D8B01-1BE4-234B-AE2D-8E71BAE39763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C0E7B49-494D-4239-8ABB-DFB2986B9BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2300" windowWidth="27640" windowHeight="16940" xr2:uid="{1460B358-1426-D741-835C-DFB6A5B501E1}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{399DBD28-A0E7-4548-B24A-05D6ECEE84DB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
-    <t>ATIVO</t>
+    <t/>
   </si>
   <si>
     <t>ATT_NAME</t>
@@ -89,9 +89,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -146,39 +146,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -230,7 +230,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -341,13 +341,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -356,6 +349,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -420,28 +420,47 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3787DF9B-DC2D-324E-85A6-C14E5694D143}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B227ECF2-8CF0-440F-A92F-4E80B7057E18}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,7 +483,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -475,7 +494,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -483,10 +502,10 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>18.036850979458936</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>12.785992840510046</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -497,7 +516,7 @@
         <v>10608.093000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -520,7 +539,7 @@
         <v>155199.05185581109</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -543,7 +562,7 @@
         <v>39049.294829840699</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -566,7 +585,7 @@
         <v>29661.954305967687</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -589,7 +608,7 @@
         <v>10381.68400708869</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -612,7 +631,7 @@
         <v>10381.68400708869</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -635,7 +654,7 @@
         <v>211855.00921470643</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -643,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>8.5659836371928861</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>6.117934790498496</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -654,10 +673,10 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>29.70572691476892</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>17.81122021073049</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -665,10 +684,10 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>7.3667355023573107</v>
+        <v>7.2887113573703308</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>